--- a/pred_ohlcv/54_21/2019-10-26 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 INS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>34112.09179999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>33877.3498</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>36217.14719999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>38543.71059999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>54655.42779999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>54620.42989999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>54620.42989999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>52175.26009999998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4139.104429787221</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9183.488929787221</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-7873.457329787221</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7872.457329787221</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-183367.3284297872</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-189166.3284297872</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-198971.6528297872</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-198970.6528297872</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-199782.6528297872</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-200045.7828297872</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-200045.7828297872</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-199544.7828297872</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-199744.7828297872</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-200432.4208297872</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-207235.3967297872</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-229552.8109297872</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-229551.8109297872</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-226341.2762297872</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-226341.2762297872</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-226541.2761297872</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-225525.2761297872</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-222608.3988297872</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-233079.8622297872</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-243869.3380297872</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 INS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>34113.09179999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>34113.09179999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>34112.09179999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>34112.09179999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>33877.3498</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33747.3498</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>36218.14719999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>36217.14719999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>34298.34919999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>54620.42989999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4139.104429787221</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9183.488929787221</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-7873.457329787221</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7872.457329787221</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-183367.3284297872</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-189166.3284297872</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-198972.6528297872</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-198971.6528297872</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-198970.6528297872</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-199782.6528297872</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-200045.7828297872</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-200045.7828297872</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-199544.7828297872</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-199744.7828297872</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-200432.4208297872</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-207235.3967297872</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-229551.8109297872</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-226341.2762297872</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-223373.9848297872</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-233079.8622297872</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
